--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Unicommerce Esolutions Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Unicommerce Esolutions Ltd_Semi_Final.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>Balance Sheet of Unicommerce Esolutions(in Rs. Cr.)</t>
   </si>
@@ -170,6 +170,12 @@
     <t>Quarterly Results of Unicommerce Esolutions(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -224,19 +230,34 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>Key Financial Ratios of Unicommerce Esolutions(in Rs. Cr.)</t>
@@ -1515,13 +1536,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1538,19 +1559,19 @@
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>57</v>
@@ -1585,64 +1606,70 @@
       <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
         <v>25.93</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>25.93</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>17.09</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.5</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>5.24</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>3.1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1.85</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4.95</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K2">
-        <v>4.88</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>4.88</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>4.88</v>
+      </c>
+      <c r="P2">
         <v>1.19</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>3.69</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>3.69</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.02</v>
-      </c>
-      <c r="R2">
-        <v>0.37</v>
-      </c>
-      <c r="S2">
-        <v>0.33</v>
       </c>
       <c r="T2">
         <v>0.37</v>
@@ -1650,64 +1677,70 @@
       <c r="U2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0.37</v>
+      </c>
+      <c r="W2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3">
         <v>25.96</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>25.96</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>14.37</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.9</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>7.04</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>3.66</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.7</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>5.36</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.15</v>
-      </c>
-      <c r="K3">
-        <v>5.2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>5.2</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>5.2</v>
+      </c>
+      <c r="P3">
         <v>1.37</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3.83</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>3.83</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>5.89</v>
-      </c>
-      <c r="R3">
-        <v>0.65</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
       <c r="T3">
         <v>0.65</v>
@@ -1715,64 +1748,70 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0.65</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
         <v>26.53</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>26.53</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>16.07</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.86</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>6.83</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2.77</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.19</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>3.97</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.17</v>
-      </c>
-      <c r="K4">
-        <v>3.8</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>3.8</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
         <v>0.92</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2.88</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.88</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>5.89</v>
-      </c>
-      <c r="R4">
-        <v>0.28</v>
-      </c>
-      <c r="S4">
-        <v>0.26</v>
       </c>
       <c r="T4">
         <v>0.28</v>
@@ -1780,64 +1819,70 @@
       <c r="U4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
         <v>27.47</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>27.47</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>16.55</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.85</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>6.73</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>3.34</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.55</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>4.89</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.16</v>
-      </c>
-      <c r="K5">
-        <v>4.74</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>4.74</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4.74</v>
+      </c>
+      <c r="P5">
         <v>1.23</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>3.51</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>3.51</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>5.89</v>
-      </c>
-      <c r="R5">
-        <v>0.35</v>
-      </c>
-      <c r="S5">
-        <v>0.31</v>
       </c>
       <c r="T5">
         <v>0.35</v>
@@ -1845,69 +1890,81 @@
       <c r="U5">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0.35</v>
+      </c>
+      <c r="W5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
         <v>29.31</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>29.31</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>16.09</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.85</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>7.5</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>4.87</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1.29</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>6.16</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.14</v>
-      </c>
-      <c r="K6">
-        <v>6.02</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>6.02</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.02</v>
+      </c>
+      <c r="P6">
         <v>1.54</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>4.47</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>4.47</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>10.24</v>
-      </c>
-      <c r="R6">
-        <v>0.44</v>
-      </c>
-      <c r="S6">
-        <v>0.4</v>
       </c>
       <c r="T6">
         <v>0.44</v>
       </c>
       <c r="U6">
+        <v>0.4</v>
+      </c>
+      <c r="V6">
+        <v>0.44</v>
+      </c>
+      <c r="W6">
         <v>0.4</v>
       </c>
     </row>
@@ -1926,58 +1983,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18">
